--- a/biology/Zoologie/Agyphantes/Agyphantes.xlsx
+++ b/biology/Zoologie/Agyphantes/Agyphantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agyphantes est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agyphantes est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Russie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Russie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 16.5, 25/07/2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 16.5, 25/07/2015) :
 Agyphantes sajanensis (Eskov &amp; Marusik, 1994)
 Agyphantes sakhalinensis Saaristo &amp; Marusik, 2004</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Saaristo &amp; Marusik, 2004 : Two new petrophilous micronetine genera, Agyphantes gen. n. and Lidia gen. n. (Araneae, Linyphiidae, Micronetinae), from the eastern Palearctic with descriptions of two new species. Bulletin of the British Arachnological Society, vol. 13, p. 76-82.</t>
         </is>
